--- a/biology/Médecine/Hassane_Bah/Hassane_Bah.xlsx
+++ b/biology/Médecine/Hassane_Bah/Hassane_Bah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hassane Bah, né le 12 décembre 1956 à kindia, est un médecin et personnalité politique guinéen.
-Il est conseiller depuis le 22 janvier 2022 au sein du conseil national de la transition guinéen dirigé par Dansa Kourouma[1],[2]
-Il est le premier médecin légiste guinéen[3].
+Il est conseiller depuis le 22 janvier 2022 au sein du conseil national de la transition guinéen dirigé par Dansa Kourouma,
+Il est le premier médecin légiste guinéen.
 </t>
         </is>
       </c>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,12 +553,11 @@
           <t>Études</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hassane Bah est diplômé d'État, docteur en médecine depuis mai 1984, en médecine d'expertise depuis décembre 1992, et en anatomopathologie depuis juin 1992, en médecine légale et criminologie depuis juillet 1993 et en toxicologie et bromatologie depuis juillet 1993.
-Carrière de médecin
-Hassane Bah commence en tant que médecin stagiaire à l’hôpital préfectoral de Boffa de janvier 1983 en juin 1984 avant de rejoindre Conakry au service de médecine générale B du CHU Ignace Deen en 1984 et en 1989 en tant que médecin titulaire cumulativement dès 1987 médecin chef adjoint au service de médecine générale  B du CHU Ignace Deen jusqu'en 1989.
-Il rejoint la Belgique et faisant fonction d’interne (FFI) au service de médecine du CHU de liège de 1990 en 1993. Depuis 1995, il est le médecin chef du service de médecine légale du CHU Ignace Deen de Conakry.
 </t>
         </is>
       </c>
@@ -570,10 +583,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière de médecin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hassane Bah commence en tant que médecin stagiaire à l’hôpital préfectoral de Boffa de janvier 1983 en juin 1984 avant de rejoindre Conakry au service de médecine générale B du CHU Ignace Deen en 1984 et en 1989 en tant que médecin titulaire cumulativement dès 1987 médecin chef adjoint au service de médecine générale  B du CHU Ignace Deen jusqu'en 1989.
+Il rejoint la Belgique et faisant fonction d’interne (FFI) au service de médecine du CHU de liège de 1990 en 1993. Depuis 1995, il est le médecin chef du service de médecine légale du CHU Ignace Deen de Conakry.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hassane_Bah</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hassane_Bah</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Parcours d’enseignant</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hassane Bah devient dès 1987, assistant au niveau de la chaire d’endocrinologie dirigé par le professeur Brakov V à l'université de Conakry jusqu'en 1988.
 En avril 1993, il devient assistant de médecine interne au niveau de l'université de Conakry par arrêté N°93/2483/MELRS/CAB l'année suivante assistant de médecine légale.
@@ -585,31 +638,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Hassane_Bah</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hassane_Bah</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Hassane Bah est marié et père de quatre enfants
 </t>
